--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
@@ -262,9 +262,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -273,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,7 +557,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +603,7 @@
       <c r="D2" s="4">
         <v>2012</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="4">
@@ -612,99 +612,99 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>2013</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>2012</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>2015</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="4">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>33</v>
+        <v>2012</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>2011</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F7" s="4">
         <v>58</v>
@@ -712,22 +712,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
+        <v>2013</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="4">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,13 +737,13 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="4">
         <v>2019</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="4">
@@ -757,13 +757,13 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="4">
         <v>2015</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="4">
@@ -778,12 +778,12 @@
         <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="4">
         <v>2014</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="5">
@@ -791,19 +791,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A12:F12"/>
-  </mergeCells>
+  <sortState ref="A2:F12">
+    <sortCondition descending="1" ref="F1"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
@@ -149,13 +149,13 @@
     <t>citations †</t>
   </si>
   <si>
-    <t>†: based on ResearchGate platform</t>
-  </si>
-  <si>
     <t>International Journal of Remote Sensing</t>
   </si>
   <si>
     <t>https://doi.org/10.1111/fog.12040</t>
+  </si>
+  <si>
+    <t>†: based on ResearchGate platform updated August 24, 2023</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>2012</v>
@@ -784,7 +784,7 @@
         <v>2014</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5">
         <v>25</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>

--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S5.xlsx
@@ -113,49 +113,49 @@
     <t>Ecological niche modeling of Stenella dolphins (Cetartiodactyla: Delphinidae) in the southwestern Atlantic Ocean</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/j.1365-2699.2011.02681.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/fog.12050</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jbi.12008</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/01431161.2012.685980</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/icesjms/fsr047</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3354/meps10200</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jbi.12541</t>
-  </si>
-  <si>
-    <t>Spatio-temporal trends of sailfish, Istiophorus platypterus catch rates in relation to spawning ground and environmental factors in the equatorial and southwestern Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Mourato et al.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1139/cjfas-2018-0148</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jembe.2015.07.013</t>
-  </si>
-  <si>
     <t>citations †</t>
   </si>
   <si>
     <t>International Journal of Remote Sensing</t>
   </si>
   <si>
-    <t>https://doi.org/10.1111/fog.12040</t>
-  </si>
-  <si>
-    <t>†: based on ResearchGate platform updated August 24, 2023</t>
+    <t>Battini et al.</t>
+  </si>
+  <si>
+    <t>10.1111/j.1365-2699.2011.02681.x</t>
+  </si>
+  <si>
+    <t>10.1111/jbi.12008</t>
+  </si>
+  <si>
+    <t>10.1111/fog.12050</t>
+  </si>
+  <si>
+    <t>10.3354/meps10200</t>
+  </si>
+  <si>
+    <t>10.1080/01431161.2012.685980</t>
+  </si>
+  <si>
+    <t>10.1111/jbi.12541</t>
+  </si>
+  <si>
+    <t>10.1093/icesjms/fsr047</t>
+  </si>
+  <si>
+    <t>10.1016/j.jembe.2015.07.013</t>
+  </si>
+  <si>
+    <t>10.1139/cjfas-2018-0148</t>
+  </si>
+  <si>
+    <t>10.3354/meps12878</t>
+  </si>
+  <si>
+    <t>Staying ahead of invaders: using species distribution modeling to predict alien species' potential niche shifts</t>
+  </si>
+  <si>
+    <t>†: updated on the 10th of May 2023</t>
   </si>
 </sst>
 </file>
@@ -557,12 +557,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="146.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.21875" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -604,10 +604,10 @@
         <v>2012</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -624,10 +624,10 @@
         <v>2013</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -644,30 +644,30 @@
         <v>2014</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="4">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="4">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,116 +678,116 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>2012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" s="4">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="4">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
